--- a/dat/wupData.xlsx
+++ b/dat/wupData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\actiontest\actiontest\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bene\Documents\repos\GITHUB\actiontest\actiontest\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC4C7FB-73EE-4CB7-A262-D97315A09D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A3EEE9-0AA7-4C70-B24C-EF3A3D3533F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="1395" windowWidth="22980" windowHeight="12315" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="18000" windowHeight="11170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apischema" sheetId="1" r:id="rId1"/>
@@ -1325,20 +1325,20 @@
       <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.90625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>68</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>68</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>68</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>68</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>110</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>110</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>110</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>110</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>110</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>93</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>93</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>93</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>93</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>93</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>93</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>93</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>93</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>93</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>93</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>93</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>93</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>93</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>93</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>79</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>79</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>79</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>79</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>79</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>79</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>79</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>79</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>66</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>66</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>66</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>66</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>66</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>66</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>66</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>66</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>66</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>66</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>66</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>66</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>66</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>66</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>255</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>255</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3247,7 +3247,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3258,7 +3258,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3269,7 +3269,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3280,7 +3280,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3311,23 +3311,23 @@
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.453125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>63</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>66</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>255</v>
       </c>
@@ -3591,15 +3591,15 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>3200</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>3250</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>5100</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3300</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>3350</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>3400</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>4100</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4150</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9000</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>8300</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>8100</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>7200</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>3150</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>7300</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>7100</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>3100</v>
       </c>
@@ -3906,17 +3906,17 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>3422</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>8153</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>4052</v>
       </c>

--- a/dat/wupData.xlsx
+++ b/dat/wupData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bene\Documents\repos\GITHUB\actiontest\actiontest\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A3EEE9-0AA7-4C70-B24C-EF3A3D3533F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5AD3E-B692-4175-9310-D053336126AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3760" windowWidth="18000" windowHeight="11170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apischema" sheetId="1" r:id="rId1"/>
@@ -3306,7 +3306,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
     </sheetView>
@@ -3901,7 +3901,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
